--- a/AP.xlsx
+++ b/AP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/546f42fb98f38604/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d7dan\curso_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8E9FD5-21F4-489A-8C70-D07671F287AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E6DBC-45B3-4860-915C-573F985293BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BD8BC1A-E077-4A01-ADEE-1F3E9BEF43EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Rodada 0</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Gre x Juv</t>
+  </si>
+  <si>
+    <t>Brg x São</t>
   </si>
 </sst>
 </file>
@@ -420,50 +423,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,24 +450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,13 +514,61 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +576,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -652,11 +655,6 @@
     <dxf>
       <font>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -973,382 +971,384 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="6" customWidth="1"/>
     <col min="3" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="21" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="21"/>
+    <col min="12" max="13" width="10.7109375" style="11" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="11"/>
     <col min="28" max="28" width="10" customWidth="1"/>
     <col min="29" max="30" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="7">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="54">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="20"/>
-      <c r="L1" s="58" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="L1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
     </row>
     <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="58">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="L2" s="55" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="L2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="45">
         <v>1</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="26">
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44">
         <v>2</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="26">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="44">
         <v>3</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="26">
+      <c r="T2" s="45"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="44">
         <v>4</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="26">
+      <c r="W2" s="45"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="44">
         <v>5</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="8">
         <v>4</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="8">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="40">
         <v>2</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="24" t="s">
+      <c r="Z3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AD3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+      <c r="B4" s="51">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="33" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="L4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="21">
         <v>3.84</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="21">
         <v>3.68</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="57">
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="41">
         <f>((IF(N4&gt;0,1,0))+(IF(Q4&gt;0,1,0))+(IF(T4&gt;0,1,0))+(IF(W4&gt;0,1,0))+(IF(Z4&gt;0,1,0)))*$L$3</f>
         <v>4</v>
       </c>
-      <c r="AC4" s="59">
+      <c r="AC4" s="42">
         <f>(IF(O4="WIN",N4,0)*$L$3)+(IF(R4="WIN",Q4,0)*$L$3)+(IF(U4="WIN",T4,0)*$L$3)+(IF(X4="WIN",W4,0)*$L$3)+(IF(AA4="WIN",Z4,0)*$L$3)</f>
         <v>7.68</v>
       </c>
-      <c r="AD4" s="60">
+      <c r="AD4" s="43">
         <f>AC4-AB4</f>
         <v>3.6799999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="3">
-        <f>(SUM($F$1*1*5)*-1)+($F$1*$F$2*C$3)</f>
+        <f t="shared" ref="C5:H5" si="0">(SUM($F$1*1*5)*-1)+($F$1*$F$2*C$3)</f>
         <v>-10</v>
       </c>
       <c r="D5" s="3">
-        <f>(SUM($F$1*1*5)*-1)+($F$1*$F$2*D$3)</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="E5" s="3">
-        <f>(SUM($F$1*1*5)*-1)+($F$1*$F$2*E$3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <f>(SUM($F$1*1*5)*-1)+($F$1*$F$2*F$3)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G5" s="3">
-        <f>(SUM($F$1*1*5)*-1)+($F$1*$F$2*G$3)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H5" s="3">
-        <f>(SUM($F$1*1*5)*-1)+($F$1*$F$2*H$3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I5" s="3">
         <f>$F$1*5</f>
         <v>10</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="10">
         <f>I5</f>
         <v>10</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="21">
         <v>3.86</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="21">
         <v>3.15</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="57">
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="41">
         <f>((IF(N5&gt;0,1,0))+(IF(Q5&gt;0,1,0))+(IF(T5&gt;0,1,0))+(IF(W5&gt;0,1,0))+(IF(Z5&gt;0,1,0)))*$L$3</f>
         <v>4</v>
       </c>
-      <c r="AC5" s="59">
+      <c r="AC5" s="42">
         <f>(IF(O5="WIN",N5,0)*$L$3)+(IF(R5="WIN",Q5,0)*$L$3)+(IF(U5="WIN",T5,0)*$L$3)+(IF(X5="WIN",W5,0)*$L$3)+(IF(AA5="WIN",Z5,0)*$L$3)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="60">
+      <c r="AD5" s="43">
         <f>AC5-AB5</f>
         <v>-4</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="51">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="46"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="3">
-        <f>(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*C$3)+($C$5)</f>
+        <f t="shared" ref="C7:H7" si="1">(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*C$3)+($C$5)</f>
         <v>-30</v>
       </c>
       <c r="D7" s="3">
-        <f>(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*D$3)+($C$5)</f>
+        <f t="shared" si="1"/>
         <v>-18</v>
       </c>
       <c r="E7" s="3">
-        <f>(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*E$3)+($C$5)</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="F7" s="3">
-        <f>(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*F$3)+($C$5)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G7" s="3">
-        <f>(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*G$3)+($C$5)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H7" s="3">
-        <f>(SUM($F$1*2*5)*-1)+($F$1*2*$F$2*H$3)+($C$5)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I7" s="3">
@@ -1359,60 +1359,60 @@
         <f>I7+J5</f>
         <v>30</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="46"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="30"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="38"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="3">
         <f>(SUM($F$1*2*4)*-1)+($F$1*2*$F$2*C$3)+($D$5)</f>
         <v>-20</v>
@@ -1433,7 +1433,7 @@
         <f>(SUM($F$1*2*4)*-1)+($F$1*2*$F$2*G$3)+($D$5)</f>
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="3">
@@ -1445,24 +1445,24 @@
         <v>26</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="S9" s="22"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="S10" s="22"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="3">
         <f>(SUM($F$1*2*3)*-1)+($F$1*2*$F$2*C$3)+($E$5)</f>
         <v>-10</v>
@@ -1482,7 +1482,7 @@
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="3">
@@ -1493,48 +1493,48 @@
         <f>I11+J5</f>
         <v>22</v>
       </c>
-      <c r="S11" s="22"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="51">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="S12" s="22"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="3">
-        <f>(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*C$3)+($C$7)</f>
+        <f t="shared" ref="C13:H13" si="2">(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*C$3)+($C$7)</f>
         <v>-70</v>
       </c>
       <c r="D13" s="3">
-        <f>(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*D$3)+($C$7)</f>
+        <f t="shared" si="2"/>
         <v>-46</v>
       </c>
       <c r="E13" s="3">
-        <f>(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*E$3)+($C$7)</f>
+        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
       <c r="F13" s="3">
-        <f>(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*F$3)+($C$7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G13" s="3">
-        <f>(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*G$3)+($C$7)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H13" s="3">
-        <f>(SUM($F$1*4*5)*-1)+($F$1*4*$F$2*H$3)+($C$7)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I13" s="3">
@@ -1545,24 +1545,24 @@
         <f>I13+J7</f>
         <v>70</v>
       </c>
-      <c r="S13" s="22"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="S14" s="22"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="3">
         <f>(SUM($F$1*4*4)*-1)+($F$1*4*$F$2*C$3)+($D$7)</f>
         <v>-50</v>
@@ -1594,24 +1594,24 @@
         <f>I15+J7</f>
         <v>62</v>
       </c>
-      <c r="S15" s="22"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="S16" s="22"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="3">
         <f>(SUM($F$1*4*3)*-1)+($F$1*4*$F$2*C$3)+($E$7)</f>
         <v>-30</v>
@@ -1642,24 +1642,24 @@
         <f>I17+J7</f>
         <v>54</v>
       </c>
-      <c r="S17" s="22"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="S18" s="22"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="3">
         <f>(SUM($F$1*4*4)*-1)+($F$1*4*$F$2*C$3)+($C$9)</f>
         <v>-52</v>
@@ -1691,24 +1691,24 @@
         <f>I19+J9</f>
         <v>58</v>
       </c>
-      <c r="S19" s="22"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="S20" s="22"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="3">
         <f>(SUM($F$1*4*3)*-1)+($F$1*4*$F$2*C$3)+($D$9)</f>
         <v>-32</v>
@@ -1739,24 +1739,24 @@
         <f>I21+J9</f>
         <v>50</v>
       </c>
-      <c r="S21" s="22"/>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="S22" s="22"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="3">
         <f>(SUM($F$1*4*3)*-1)+($F$1*4*$F$2*C$3)+($C$11)</f>
         <v>-34</v>
@@ -1787,27 +1787,24 @@
         <f>I23+J11</f>
         <v>46</v>
       </c>
-      <c r="S23" s="22"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S24" s="22"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S25" s="22"/>
+      <c r="S25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B12:B23"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
@@ -1819,9 +1816,12 @@
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:J5 C7:J7 C9:J9">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
